--- a/code/excels/npc_units_custom.xlsx
+++ b/code/excels/npc_units_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="171">
   <si>
     <t>主键</t>
   </si>
@@ -539,9 +539,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -552,24 +552,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,15 +583,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -605,6 +599,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -612,9 +613,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,41 +651,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,19 +667,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -711,19 +711,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +843,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,151 +873,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,60 +902,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -994,6 +940,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1002,16 +963,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,133 +1020,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2024,7 +2024,7 @@
   <dimension ref="A1:BY26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3020,6 +3020,11 @@
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="23" spans="65:72">
       <c r="BM23" s="1"/>

--- a/code/excels/npc_units_custom.xlsx
+++ b/code/excels/npc_units_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="172">
   <si>
     <t>主键</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>units/common_units.kv</t>
+  </si>
+  <si>
+    <t>units/imba_units.kv</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -552,23 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -583,11 +569,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,54 +583,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,7 +601,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,6 +622,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -682,8 +662,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,6 +691,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -711,19 +714,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,163 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,41 +905,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -955,15 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -975,6 +934,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,16 +994,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,133 +1023,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2024,7 +2027,7 @@
   <dimension ref="A1:BY26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3024,6 +3027,11 @@
     <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="65:72">

--- a/code/excels/npc_units_custom.xlsx
+++ b/code/excels/npc_units_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="171">
   <si>
     <t>主键</t>
   </si>
@@ -531,9 +531,6 @@
   </si>
   <si>
     <t>units/common_units.kv</t>
-  </si>
-  <si>
-    <t>units/imba_units.kv</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2024,7 @@
   <dimension ref="A1:BY26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3027,11 +3024,6 @@
     <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="65:72">

--- a/code/excels/npc_units_custom.xlsx
+++ b/code/excels/npc_units_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="173">
   <si>
     <t>主键</t>
   </si>
@@ -531,6 +531,12 @@
   </si>
   <si>
     <t>units/common_units.kv</t>
+  </si>
+  <si>
+    <t>building/building_unit_boss.kv</t>
+  </si>
+  <si>
+    <t>units/building_unit_boss.kv</t>
   </si>
 </sst>
 </file>
@@ -2021,10 +2027,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BY26"/>
+  <dimension ref="A1:BY27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3021,50 +3027,58 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" customFormat="1" spans="1:2">
       <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="23" spans="65:72">
-      <c r="BM23" s="1"/>
-      <c r="BN23" s="1"/>
-      <c r="BO23" s="1"/>
-      <c r="BP23" s="1"/>
-      <c r="BQ23" s="1"/>
-      <c r="BR23" s="1"/>
-      <c r="BS23" s="1"/>
-      <c r="BT23" s="1"/>
     </row>
     <row r="24" spans="65:72">
-      <c r="BM24" s="2"/>
-      <c r="BN24" s="2"/>
-      <c r="BO24" s="2"/>
-      <c r="BP24" s="2"/>
-      <c r="BQ24" s="2"/>
-      <c r="BR24" s="2"/>
-      <c r="BS24" s="2"/>
-      <c r="BT24" s="2"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
     </row>
     <row r="25" spans="65:72">
-      <c r="BM25" s="9"/>
-      <c r="BN25" s="9"/>
-      <c r="BO25" s="9"/>
-      <c r="BP25" s="9"/>
-      <c r="BQ25" s="9"/>
-      <c r="BR25" s="9"/>
-      <c r="BS25" s="9"/>
-      <c r="BT25" s="9"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
     </row>
     <row r="26" spans="65:72">
-      <c r="BM26" s="4"/>
-      <c r="BN26" s="4"/>
-      <c r="BO26" s="4"/>
-      <c r="BP26" s="4"/>
-      <c r="BQ26" s="4"/>
-      <c r="BR26" s="4"/>
-      <c r="BS26" s="4"/>
-      <c r="BT26" s="4"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="9"/>
+      <c r="BQ26" s="9"/>
+      <c r="BR26" s="9"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="9"/>
+    </row>
+    <row r="27" spans="65:72">
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="4"/>
+      <c r="BO27" s="4"/>
+      <c r="BP27" s="4"/>
+      <c r="BQ27" s="4"/>
+      <c r="BR27" s="4"/>
+      <c r="BS27" s="4"/>
+      <c r="BT27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
